--- a/test_xls/Propietarios CRO - copia.xlsx
+++ b/test_xls/Propietarios CRO - copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\convertidor_xls\convertidos_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\convertidor_xls\convertidos_xlsx\test_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0D864-2299-402D-9122-873826B1FCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7A26B-5BF7-47B4-A00C-A98EB84C7EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="4410" windowWidth="23100" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="2340" windowWidth="19860" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report1593736569256" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Miembro de campaña Id.</t>
   </si>
@@ -31,25 +31,28 @@
     <t>Campañas: Nombre de la campaña</t>
   </si>
   <si>
+    <t>Dueño: Nombre completo</t>
+  </si>
+  <si>
+    <t>Asignado a: Nombre completo</t>
+  </si>
+  <si>
+    <t>a5e1V000000ktfX</t>
+  </si>
+  <si>
+    <t>Beneficios adicionales CRO - Nuevos Asesores</t>
+  </si>
+  <si>
+    <t>Marcelo Ibarra Valencia</t>
+  </si>
+  <si>
+    <t>Marcelo Ibarra Valenci</t>
+  </si>
+  <si>
     <t>Fecha de la última modificación</t>
   </si>
   <si>
-    <t>Dueño: Nombre completo</t>
-  </si>
-  <si>
-    <t>Asignado a: Nombre completo</t>
-  </si>
-  <si>
     <t>Cuenta: Propietario del Cliente: Nombre completo</t>
-  </si>
-  <si>
-    <t>a5e1V000000ktfX</t>
-  </si>
-  <si>
-    <t>Beneficios adicionales CRO - Nuevos Asesores</t>
-  </si>
-  <si>
-    <t>Marcelo Ibarra Valencia</t>
   </si>
 </sst>
 </file>
@@ -907,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,36 +936,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>43903</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
